--- a/plantillas/LibroDiario.xlsx
+++ b/plantillas/LibroDiario.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USAT\2024-2\calidad\GOTA_A_GOTA\grupogota_servidor\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C4F0087F-2B27-46E0-B99E-786DBE8D8AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC262EA-996E-4712-82F9-655EC3483B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F 5.1 Libro Diario" sheetId="2" r:id="rId1"/>
@@ -23,20 +23,11 @@
     <definedName name="VENCII">[1]CRONOGRAMA!$C$83:$D$452</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>RUC:</t>
   </si>
@@ -71,79 +62,10 @@
     <t>FORMATO 5.2: "LIBRO DIARIO - FORMATO SIMPLIFICADO"</t>
   </si>
   <si>
-    <t xml:space="preserve">               REFERENCIA DE LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 MOVIMIENTO</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                 ACTIVO (TABLA 9)</t>
   </si>
   <si>
     <t xml:space="preserve">                                    PASIVO (TABLA 9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         DEL ASIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     O CÓDIGO ÚNICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    DE LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        DE LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       FECHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         DESCRIPCIÓN DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  GLOSA O</t>
-  </si>
-  <si>
-    <t>CÓDIGO DEL LIBRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        O REGISTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           (TABLA 8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      NÚMERO</t>
-  </si>
-  <si>
-    <t>CORRELATIVO</t>
-  </si>
-  <si>
-    <t>SUSTENTATORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     DOCUMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    NÚMERO DEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    CÓDIGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      DENOMINACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           DEBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        HABER</t>
   </si>
   <si>
     <t xml:space="preserve">                        TOTALES</t>
@@ -175,11 +97,44 @@
   <si>
     <t>DECO ELERA S.A.C.</t>
   </si>
+  <si>
+    <t>NÚMERO CORRELATIVO DEL ASIENTO O CÓDIGO ÚNICO DE LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DE LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>GLOSA O DESCRIPCIÓN DE LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>REFERENCIA DE LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO</t>
+  </si>
+  <si>
+    <t>CÓDIGO DEL LIBRO O REGISTRO (TABLA 8)</t>
+  </si>
+  <si>
+    <t>NÚMERO DEL DOCUMENTO SUSTENTATORIO</t>
+  </si>
+  <si>
+    <t>CÓDIGO</t>
+  </si>
+  <si>
+    <t>DENOMINACIÓN</t>
+  </si>
+  <si>
+    <t>DEBE</t>
+  </si>
+  <si>
+    <t>HABER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -260,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -335,17 +290,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -353,44 +297,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -485,75 +391,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -562,11 +411,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3903,14 +3797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3971,7 +3865,7 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="24">
         <v>20612188930</v>
       </c>
       <c r="C4" s="4"/>
@@ -3989,8 +3883,8 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="16" t="s">
-        <v>45</v>
+      <c r="D5" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -4010,107 +3904,83 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>11</v>
+      <c r="B7" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
+      <c r="I8" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="8"/>
-      <c r="H11" s="43" t="s">
-        <v>36</v>
+      <c r="H11" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -4128,6 +3998,21 @@
       <c r="A15" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1.3779527559055118" bottom="1" header="0" footer="0"/>
@@ -4137,7 +4022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4227,69 +4112,69 @@
       <c r="AP6" s="19"/>
     </row>
     <row r="8" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="49"/>
+      <c r="A8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="30"/>
     </row>
     <row r="9" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>39</v>
+      <c r="A9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="22">
         <v>10</v>
@@ -5542,8 +5427,8 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
-        <v>41</v>
+      <c r="A23" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="7"/>

--- a/plantillas/LibroDiario.xlsx
+++ b/plantillas/LibroDiario.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USAT\2024-2\calidad\GOTA_A_GOTA\grupogota_servidor\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Documents\grupogota_servidor\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC262EA-996E-4712-82F9-655EC3483B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA33727-3185-4551-BCE9-6B161BAB44CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F 5.1 Libro Diario" sheetId="2" r:id="rId1"/>
-    <sheet name="F 5.2 Libro Diario" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="VENCII">[1]CRONOGRAMA!$C$83:$D$452</definedName>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>RUC:</t>
   </si>
@@ -36,18 +35,6 @@
   </si>
   <si>
     <t>PERÍODO:</t>
-  </si>
-  <si>
-    <t>4011D</t>
-  </si>
-  <si>
-    <t>4011C</t>
-  </si>
-  <si>
-    <t>4017D</t>
-  </si>
-  <si>
-    <t>4017C</t>
   </si>
   <si>
     <t>APELLIDOS Y NOMBRES, DENOMINACIÓN O RAZÓN SOCIAL:</t>
@@ -59,40 +46,7 @@
     <t>FORMATO 5.1: "LIBRO DIARIO"</t>
   </si>
   <si>
-    <t>FORMATO 5.2: "LIBRO DIARIO - FORMATO SIMPLIFICADO"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                 ACTIVO (TABLA 9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    PASIVO (TABLA 9)</t>
-  </si>
-  <si>
     <t xml:space="preserve">                        TOTALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Período</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Fecha o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            mensual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Operación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    TOTALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    PATRIMONIO (TABLA 9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                             GASTOS (TABLA 9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  INGRESOS (TABLA 9)</t>
   </si>
   <si>
     <t>DECO ELERA S.A.C.</t>
@@ -135,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -185,18 +139,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -215,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -265,17 +207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -313,19 +244,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -340,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -358,108 +276,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,7 +347,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CARATULA"/>
@@ -3502,9 +3369,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3542,7 +3409,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3648,7 +3515,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3790,7 +3657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3804,26 +3671,26 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G8" sqref="G8:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="43.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -3835,59 +3702,59 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="12">
         <v>20612188930</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="34" t="s">
-        <v>22</v>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="6"/>
@@ -3897,105 +3764,105 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>23</v>
+    <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>8</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>24</v>
+      <c r="B7" s="20" t="s">
+        <v>9</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>25</v>
+      <c r="C7" s="20" t="s">
+        <v>10</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>26</v>
+      <c r="D7" s="23" t="s">
+        <v>11</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="38" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
-        <v>27</v>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26" t="s">
+        <v>12</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="35" t="s">
-        <v>28</v>
+    <row r="8" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20" t="s">
+        <v>13</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>8</v>
+      <c r="E8" s="20" t="s">
+        <v>4</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>29</v>
+      <c r="F8" s="20" t="s">
+        <v>14</v>
       </c>
-      <c r="G8" s="44" t="s">
-        <v>30</v>
+      <c r="G8" s="14" t="s">
+        <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
-        <v>31</v>
+      <c r="H8" s="14" t="s">
+        <v>16</v>
       </c>
-      <c r="I8" s="46" t="s">
-        <v>32</v>
+      <c r="I8" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
-        <v>33</v>
+      <c r="J8" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
+    <row r="10" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G11" s="8"/>
-      <c r="H11" s="24" t="s">
-        <v>13</v>
+      <c r="H11" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4019,1466 +3886,4 @@
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:DA25"/>
-  <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="20" width="5.6640625" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" customWidth="1"/>
-    <col min="22" max="22" width="6.44140625" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" customWidth="1"/>
-    <col min="25" max="42" width="5.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:105" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:105" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:105" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:105" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:105" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:105" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-    </row>
-    <row r="8" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="30"/>
-    </row>
-    <row r="9" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="22">
-        <v>10</v>
-      </c>
-      <c r="D9" s="21">
-        <v>12</v>
-      </c>
-      <c r="E9" s="21">
-        <v>16</v>
-      </c>
-      <c r="F9" s="21">
-        <v>20</v>
-      </c>
-      <c r="G9" s="21">
-        <v>21</v>
-      </c>
-      <c r="H9" s="21">
-        <v>33</v>
-      </c>
-      <c r="I9" s="21">
-        <v>34</v>
-      </c>
-      <c r="J9" s="21">
-        <v>38</v>
-      </c>
-      <c r="K9" s="21">
-        <v>39</v>
-      </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>402</v>
-      </c>
-      <c r="R9" s="21">
-        <v>42</v>
-      </c>
-      <c r="S9" s="21">
-        <v>46</v>
-      </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21">
-        <v>50</v>
-      </c>
-      <c r="V9" s="21">
-        <v>58</v>
-      </c>
-      <c r="W9" s="21">
-        <v>59</v>
-      </c>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21">
-        <v>60</v>
-      </c>
-      <c r="Z9" s="21">
-        <v>61</v>
-      </c>
-      <c r="AA9" s="21">
-        <v>62</v>
-      </c>
-      <c r="AB9" s="21">
-        <v>63</v>
-      </c>
-      <c r="AC9" s="21">
-        <v>65</v>
-      </c>
-      <c r="AD9" s="21">
-        <v>66</v>
-      </c>
-      <c r="AE9" s="21">
-        <v>67</v>
-      </c>
-      <c r="AF9" s="21">
-        <v>68</v>
-      </c>
-      <c r="AG9" s="21">
-        <v>69</v>
-      </c>
-      <c r="AH9" s="21">
-        <v>96</v>
-      </c>
-      <c r="AI9" s="21">
-        <v>97</v>
-      </c>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21">
-        <v>70</v>
-      </c>
-      <c r="AL9" s="21">
-        <v>75</v>
-      </c>
-      <c r="AM9" s="21">
-        <v>76</v>
-      </c>
-      <c r="AN9" s="21">
-        <v>77</v>
-      </c>
-      <c r="AO9" s="21">
-        <v>79</v>
-      </c>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
-      <c r="AU9" s="11"/>
-      <c r="AV9" s="11"/>
-      <c r="AW9" s="11"/>
-      <c r="AX9" s="11"/>
-      <c r="AY9" s="11"/>
-      <c r="AZ9" s="11"/>
-      <c r="BA9" s="11"/>
-      <c r="BB9" s="11"/>
-      <c r="BC9" s="11"/>
-      <c r="BD9" s="11"/>
-      <c r="BE9" s="11"/>
-      <c r="BF9" s="11"/>
-      <c r="BG9" s="11"/>
-      <c r="BH9" s="11"/>
-      <c r="BI9" s="11"/>
-      <c r="BJ9" s="11"/>
-      <c r="BK9" s="11"/>
-      <c r="BL9" s="11"/>
-      <c r="BM9" s="11"/>
-      <c r="BN9" s="11"/>
-      <c r="BO9" s="11"/>
-      <c r="BP9" s="11"/>
-      <c r="BQ9" s="11"/>
-      <c r="BR9" s="11"/>
-      <c r="BS9" s="11"/>
-      <c r="BT9" s="11"/>
-      <c r="BU9" s="11"/>
-      <c r="BV9" s="11"/>
-      <c r="BW9" s="11"/>
-      <c r="BX9" s="11"/>
-      <c r="BY9" s="11"/>
-      <c r="BZ9" s="11"/>
-      <c r="CA9" s="11"/>
-      <c r="CB9" s="11"/>
-      <c r="CC9" s="11"/>
-      <c r="CD9" s="11"/>
-      <c r="CE9" s="11"/>
-      <c r="CF9" s="11"/>
-      <c r="CG9" s="11"/>
-      <c r="CH9" s="11"/>
-      <c r="CI9" s="11"/>
-      <c r="CJ9" s="11"/>
-      <c r="CK9" s="11"/>
-      <c r="CL9" s="11"/>
-      <c r="CM9" s="11"/>
-      <c r="CN9" s="11"/>
-      <c r="CO9" s="11"/>
-      <c r="CP9" s="11"/>
-      <c r="CQ9" s="11"/>
-      <c r="CR9" s="11"/>
-      <c r="CS9" s="11"/>
-      <c r="CT9" s="11"/>
-      <c r="CU9" s="11"/>
-      <c r="CV9" s="11"/>
-      <c r="CW9" s="11"/>
-      <c r="CX9" s="11"/>
-      <c r="CY9" s="11"/>
-      <c r="CZ9" s="11"/>
-      <c r="DA9" s="11"/>
-    </row>
-    <row r="10" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="11"/>
-      <c r="AU10" s="11"/>
-      <c r="AV10" s="11"/>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="11"/>
-      <c r="BA10" s="11"/>
-      <c r="BB10" s="11"/>
-      <c r="BC10" s="11"/>
-      <c r="BD10" s="11"/>
-      <c r="BE10" s="11"/>
-      <c r="BF10" s="11"/>
-      <c r="BG10" s="11"/>
-      <c r="BH10" s="11"/>
-      <c r="BI10" s="11"/>
-      <c r="BJ10" s="11"/>
-      <c r="BK10" s="11"/>
-      <c r="BL10" s="11"/>
-      <c r="BM10" s="11"/>
-      <c r="BN10" s="11"/>
-      <c r="BO10" s="11"/>
-      <c r="BP10" s="11"/>
-      <c r="BQ10" s="11"/>
-      <c r="BR10" s="11"/>
-      <c r="BS10" s="11"/>
-      <c r="BT10" s="11"/>
-      <c r="BU10" s="11"/>
-      <c r="BV10" s="11"/>
-      <c r="BW10" s="11"/>
-      <c r="BX10" s="11"/>
-      <c r="BY10" s="11"/>
-      <c r="BZ10" s="11"/>
-      <c r="CA10" s="11"/>
-      <c r="CB10" s="11"/>
-      <c r="CC10" s="11"/>
-      <c r="CD10" s="11"/>
-      <c r="CE10" s="11"/>
-      <c r="CF10" s="11"/>
-      <c r="CG10" s="11"/>
-      <c r="CH10" s="11"/>
-      <c r="CI10" s="11"/>
-      <c r="CJ10" s="11"/>
-      <c r="CK10" s="11"/>
-      <c r="CL10" s="11"/>
-      <c r="CM10" s="11"/>
-      <c r="CN10" s="11"/>
-      <c r="CO10" s="11"/>
-      <c r="CP10" s="11"/>
-      <c r="CQ10" s="11"/>
-      <c r="CR10" s="11"/>
-      <c r="CS10" s="11"/>
-      <c r="CT10" s="11"/>
-      <c r="CU10" s="11"/>
-      <c r="CV10" s="11"/>
-      <c r="CW10" s="11"/>
-      <c r="CX10" s="11"/>
-      <c r="CY10" s="11"/>
-      <c r="CZ10" s="11"/>
-      <c r="DA10" s="11"/>
-    </row>
-    <row r="11" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11"/>
-      <c r="AX11" s="11"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11"/>
-      <c r="BD11" s="11"/>
-      <c r="BE11" s="11"/>
-      <c r="BF11" s="11"/>
-      <c r="BG11" s="11"/>
-      <c r="BH11" s="11"/>
-      <c r="BI11" s="11"/>
-      <c r="BJ11" s="11"/>
-      <c r="BK11" s="11"/>
-      <c r="BL11" s="11"/>
-      <c r="BM11" s="11"/>
-      <c r="BN11" s="11"/>
-      <c r="BO11" s="11"/>
-      <c r="BP11" s="11"/>
-      <c r="BQ11" s="11"/>
-      <c r="BR11" s="11"/>
-      <c r="BS11" s="11"/>
-      <c r="BT11" s="11"/>
-      <c r="BU11" s="11"/>
-      <c r="BV11" s="11"/>
-      <c r="BW11" s="11"/>
-      <c r="BX11" s="11"/>
-      <c r="BY11" s="11"/>
-      <c r="BZ11" s="11"/>
-      <c r="CA11" s="11"/>
-      <c r="CB11" s="11"/>
-      <c r="CC11" s="11"/>
-      <c r="CD11" s="11"/>
-      <c r="CE11" s="11"/>
-      <c r="CF11" s="11"/>
-      <c r="CG11" s="11"/>
-      <c r="CH11" s="11"/>
-      <c r="CI11" s="11"/>
-      <c r="CJ11" s="11"/>
-      <c r="CK11" s="11"/>
-      <c r="CL11" s="11"/>
-      <c r="CM11" s="11"/>
-      <c r="CN11" s="11"/>
-      <c r="CO11" s="11"/>
-      <c r="CP11" s="11"/>
-      <c r="CQ11" s="11"/>
-      <c r="CR11" s="11"/>
-      <c r="CS11" s="11"/>
-      <c r="CT11" s="11"/>
-      <c r="CU11" s="11"/>
-      <c r="CV11" s="11"/>
-      <c r="CW11" s="11"/>
-      <c r="CX11" s="11"/>
-      <c r="CY11" s="11"/>
-      <c r="CZ11" s="11"/>
-      <c r="DA11" s="11"/>
-    </row>
-    <row r="12" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="11"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11"/>
-      <c r="BB12" s="11"/>
-      <c r="BC12" s="11"/>
-      <c r="BD12" s="11"/>
-      <c r="BE12" s="11"/>
-      <c r="BF12" s="11"/>
-      <c r="BG12" s="11"/>
-      <c r="BH12" s="11"/>
-      <c r="BI12" s="11"/>
-      <c r="BJ12" s="11"/>
-      <c r="BK12" s="11"/>
-      <c r="BL12" s="11"/>
-      <c r="BM12" s="11"/>
-      <c r="BN12" s="11"/>
-      <c r="BO12" s="11"/>
-      <c r="BP12" s="11"/>
-      <c r="BQ12" s="11"/>
-      <c r="BR12" s="11"/>
-      <c r="BS12" s="11"/>
-      <c r="BT12" s="11"/>
-      <c r="BU12" s="11"/>
-      <c r="BV12" s="11"/>
-      <c r="BW12" s="11"/>
-      <c r="BX12" s="11"/>
-      <c r="BY12" s="11"/>
-      <c r="BZ12" s="11"/>
-      <c r="CA12" s="11"/>
-      <c r="CB12" s="11"/>
-      <c r="CC12" s="11"/>
-      <c r="CD12" s="11"/>
-      <c r="CE12" s="11"/>
-      <c r="CF12" s="11"/>
-      <c r="CG12" s="11"/>
-      <c r="CH12" s="11"/>
-      <c r="CI12" s="11"/>
-      <c r="CJ12" s="11"/>
-      <c r="CK12" s="11"/>
-      <c r="CL12" s="11"/>
-      <c r="CM12" s="11"/>
-      <c r="CN12" s="11"/>
-      <c r="CO12" s="11"/>
-      <c r="CP12" s="11"/>
-      <c r="CQ12" s="11"/>
-      <c r="CR12" s="11"/>
-      <c r="CS12" s="11"/>
-      <c r="CT12" s="11"/>
-      <c r="CU12" s="11"/>
-      <c r="CV12" s="11"/>
-      <c r="CW12" s="11"/>
-      <c r="CX12" s="11"/>
-      <c r="CY12" s="11"/>
-      <c r="CZ12" s="11"/>
-      <c r="DA12" s="11"/>
-    </row>
-    <row r="13" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="11"/>
-      <c r="BH13" s="11"/>
-      <c r="BI13" s="11"/>
-      <c r="BJ13" s="11"/>
-      <c r="BK13" s="11"/>
-      <c r="BL13" s="11"/>
-      <c r="BM13" s="11"/>
-      <c r="BN13" s="11"/>
-      <c r="BO13" s="11"/>
-      <c r="BP13" s="11"/>
-      <c r="BQ13" s="11"/>
-      <c r="BR13" s="11"/>
-      <c r="BS13" s="11"/>
-      <c r="BT13" s="11"/>
-      <c r="BU13" s="11"/>
-      <c r="BV13" s="11"/>
-      <c r="BW13" s="11"/>
-      <c r="BX13" s="11"/>
-      <c r="BY13" s="11"/>
-      <c r="BZ13" s="11"/>
-      <c r="CA13" s="11"/>
-      <c r="CB13" s="11"/>
-      <c r="CC13" s="11"/>
-      <c r="CD13" s="11"/>
-      <c r="CE13" s="11"/>
-      <c r="CF13" s="11"/>
-      <c r="CG13" s="11"/>
-      <c r="CH13" s="11"/>
-      <c r="CI13" s="11"/>
-      <c r="CJ13" s="11"/>
-      <c r="CK13" s="11"/>
-      <c r="CL13" s="11"/>
-      <c r="CM13" s="11"/>
-      <c r="CN13" s="11"/>
-      <c r="CO13" s="11"/>
-      <c r="CP13" s="11"/>
-      <c r="CQ13" s="11"/>
-      <c r="CR13" s="11"/>
-      <c r="CS13" s="11"/>
-      <c r="CT13" s="11"/>
-      <c r="CU13" s="11"/>
-      <c r="CV13" s="11"/>
-      <c r="CW13" s="11"/>
-      <c r="CX13" s="11"/>
-      <c r="CY13" s="11"/>
-      <c r="CZ13" s="11"/>
-      <c r="DA13" s="11"/>
-    </row>
-    <row r="14" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="11"/>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="11"/>
-      <c r="AV14" s="11"/>
-      <c r="AW14" s="11"/>
-      <c r="AX14" s="11"/>
-      <c r="AY14" s="11"/>
-      <c r="AZ14" s="11"/>
-      <c r="BA14" s="11"/>
-      <c r="BB14" s="11"/>
-      <c r="BC14" s="11"/>
-      <c r="BD14" s="11"/>
-      <c r="BE14" s="11"/>
-      <c r="BF14" s="11"/>
-      <c r="BG14" s="11"/>
-      <c r="BH14" s="11"/>
-      <c r="BI14" s="11"/>
-      <c r="BJ14" s="11"/>
-      <c r="BK14" s="11"/>
-      <c r="BL14" s="11"/>
-      <c r="BM14" s="11"/>
-      <c r="BN14" s="11"/>
-      <c r="BO14" s="11"/>
-      <c r="BP14" s="11"/>
-      <c r="BQ14" s="11"/>
-      <c r="BR14" s="11"/>
-      <c r="BS14" s="11"/>
-      <c r="BT14" s="11"/>
-      <c r="BU14" s="11"/>
-      <c r="BV14" s="11"/>
-      <c r="BW14" s="11"/>
-      <c r="BX14" s="11"/>
-      <c r="BY14" s="11"/>
-      <c r="BZ14" s="11"/>
-      <c r="CA14" s="11"/>
-      <c r="CB14" s="11"/>
-      <c r="CC14" s="11"/>
-      <c r="CD14" s="11"/>
-      <c r="CE14" s="11"/>
-      <c r="CF14" s="11"/>
-      <c r="CG14" s="11"/>
-      <c r="CH14" s="11"/>
-      <c r="CI14" s="11"/>
-      <c r="CJ14" s="11"/>
-      <c r="CK14" s="11"/>
-      <c r="CL14" s="11"/>
-      <c r="CM14" s="11"/>
-      <c r="CN14" s="11"/>
-      <c r="CO14" s="11"/>
-      <c r="CP14" s="11"/>
-      <c r="CQ14" s="11"/>
-      <c r="CR14" s="11"/>
-      <c r="CS14" s="11"/>
-      <c r="CT14" s="11"/>
-      <c r="CU14" s="11"/>
-      <c r="CV14" s="11"/>
-      <c r="CW14" s="11"/>
-      <c r="CX14" s="11"/>
-      <c r="CY14" s="11"/>
-      <c r="CZ14" s="11"/>
-      <c r="DA14" s="11"/>
-    </row>
-    <row r="15" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="11"/>
-      <c r="AT15" s="11"/>
-      <c r="AU15" s="11"/>
-      <c r="AV15" s="11"/>
-      <c r="AW15" s="11"/>
-      <c r="AX15" s="11"/>
-      <c r="AY15" s="11"/>
-      <c r="AZ15" s="11"/>
-      <c r="BA15" s="11"/>
-      <c r="BB15" s="11"/>
-      <c r="BC15" s="11"/>
-      <c r="BD15" s="11"/>
-      <c r="BE15" s="11"/>
-      <c r="BF15" s="11"/>
-      <c r="BG15" s="11"/>
-      <c r="BH15" s="11"/>
-      <c r="BI15" s="11"/>
-      <c r="BJ15" s="11"/>
-      <c r="BK15" s="11"/>
-      <c r="BL15" s="11"/>
-      <c r="BM15" s="11"/>
-      <c r="BN15" s="11"/>
-      <c r="BO15" s="11"/>
-      <c r="BP15" s="11"/>
-      <c r="BQ15" s="11"/>
-      <c r="BR15" s="11"/>
-      <c r="BS15" s="11"/>
-      <c r="BT15" s="11"/>
-      <c r="BU15" s="11"/>
-      <c r="BV15" s="11"/>
-      <c r="BW15" s="11"/>
-      <c r="BX15" s="11"/>
-      <c r="BY15" s="11"/>
-      <c r="BZ15" s="11"/>
-      <c r="CA15" s="11"/>
-      <c r="CB15" s="11"/>
-      <c r="CC15" s="11"/>
-      <c r="CD15" s="11"/>
-      <c r="CE15" s="11"/>
-      <c r="CF15" s="11"/>
-      <c r="CG15" s="11"/>
-      <c r="CH15" s="11"/>
-      <c r="CI15" s="11"/>
-      <c r="CJ15" s="11"/>
-      <c r="CK15" s="11"/>
-      <c r="CL15" s="11"/>
-      <c r="CM15" s="11"/>
-      <c r="CN15" s="11"/>
-      <c r="CO15" s="11"/>
-      <c r="CP15" s="11"/>
-      <c r="CQ15" s="11"/>
-      <c r="CR15" s="11"/>
-      <c r="CS15" s="11"/>
-      <c r="CT15" s="11"/>
-      <c r="CU15" s="11"/>
-      <c r="CV15" s="11"/>
-      <c r="CW15" s="11"/>
-      <c r="CX15" s="11"/>
-      <c r="CY15" s="11"/>
-      <c r="CZ15" s="11"/>
-      <c r="DA15" s="11"/>
-    </row>
-    <row r="16" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="11"/>
-      <c r="AT16" s="11"/>
-      <c r="AU16" s="11"/>
-      <c r="AV16" s="11"/>
-      <c r="AW16" s="11"/>
-      <c r="AX16" s="11"/>
-      <c r="AY16" s="11"/>
-      <c r="AZ16" s="11"/>
-      <c r="BA16" s="11"/>
-      <c r="BB16" s="11"/>
-      <c r="BC16" s="11"/>
-      <c r="BD16" s="11"/>
-      <c r="BE16" s="11"/>
-      <c r="BF16" s="11"/>
-      <c r="BG16" s="11"/>
-      <c r="BH16" s="11"/>
-      <c r="BI16" s="11"/>
-      <c r="BJ16" s="11"/>
-      <c r="BK16" s="11"/>
-      <c r="BL16" s="11"/>
-      <c r="BM16" s="11"/>
-      <c r="BN16" s="11"/>
-      <c r="BO16" s="11"/>
-      <c r="BP16" s="11"/>
-      <c r="BQ16" s="11"/>
-      <c r="BR16" s="11"/>
-      <c r="BS16" s="11"/>
-      <c r="BT16" s="11"/>
-      <c r="BU16" s="11"/>
-      <c r="BV16" s="11"/>
-      <c r="BW16" s="11"/>
-      <c r="BX16" s="11"/>
-      <c r="BY16" s="11"/>
-      <c r="BZ16" s="11"/>
-      <c r="CA16" s="11"/>
-      <c r="CB16" s="11"/>
-      <c r="CC16" s="11"/>
-      <c r="CD16" s="11"/>
-      <c r="CE16" s="11"/>
-      <c r="CF16" s="11"/>
-      <c r="CG16" s="11"/>
-      <c r="CH16" s="11"/>
-      <c r="CI16" s="11"/>
-      <c r="CJ16" s="11"/>
-      <c r="CK16" s="11"/>
-      <c r="CL16" s="11"/>
-      <c r="CM16" s="11"/>
-      <c r="CN16" s="11"/>
-      <c r="CO16" s="11"/>
-      <c r="CP16" s="11"/>
-      <c r="CQ16" s="11"/>
-      <c r="CR16" s="11"/>
-      <c r="CS16" s="11"/>
-      <c r="CT16" s="11"/>
-      <c r="CU16" s="11"/>
-      <c r="CV16" s="11"/>
-      <c r="CW16" s="11"/>
-      <c r="CX16" s="11"/>
-      <c r="CY16" s="11"/>
-      <c r="CZ16" s="11"/>
-      <c r="DA16" s="11"/>
-    </row>
-    <row r="17" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11"/>
-      <c r="BB17" s="11"/>
-      <c r="BC17" s="11"/>
-      <c r="BD17" s="11"/>
-      <c r="BE17" s="11"/>
-      <c r="BF17" s="11"/>
-      <c r="BG17" s="11"/>
-      <c r="BH17" s="11"/>
-      <c r="BI17" s="11"/>
-      <c r="BJ17" s="11"/>
-      <c r="BK17" s="11"/>
-      <c r="BL17" s="11"/>
-      <c r="BM17" s="11"/>
-      <c r="BN17" s="11"/>
-      <c r="BO17" s="11"/>
-      <c r="BP17" s="11"/>
-      <c r="BQ17" s="11"/>
-      <c r="BR17" s="11"/>
-      <c r="BS17" s="11"/>
-      <c r="BT17" s="11"/>
-      <c r="BU17" s="11"/>
-      <c r="BV17" s="11"/>
-      <c r="BW17" s="11"/>
-      <c r="BX17" s="11"/>
-      <c r="BY17" s="11"/>
-      <c r="BZ17" s="11"/>
-      <c r="CA17" s="11"/>
-      <c r="CB17" s="11"/>
-      <c r="CC17" s="11"/>
-      <c r="CD17" s="11"/>
-      <c r="CE17" s="11"/>
-      <c r="CF17" s="11"/>
-      <c r="CG17" s="11"/>
-      <c r="CH17" s="11"/>
-      <c r="CI17" s="11"/>
-      <c r="CJ17" s="11"/>
-      <c r="CK17" s="11"/>
-      <c r="CL17" s="11"/>
-      <c r="CM17" s="11"/>
-      <c r="CN17" s="11"/>
-      <c r="CO17" s="11"/>
-      <c r="CP17" s="11"/>
-      <c r="CQ17" s="11"/>
-      <c r="CR17" s="11"/>
-      <c r="CS17" s="11"/>
-      <c r="CT17" s="11"/>
-      <c r="CU17" s="11"/>
-      <c r="CV17" s="11"/>
-      <c r="CW17" s="11"/>
-      <c r="CX17" s="11"/>
-      <c r="CY17" s="11"/>
-      <c r="CZ17" s="11"/>
-      <c r="DA17" s="11"/>
-    </row>
-    <row r="18" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
-    </row>
-    <row r="19" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-    </row>
-    <row r="20" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
-      <c r="AP20" s="7"/>
-    </row>
-    <row r="21" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-    </row>
-    <row r="22" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-    </row>
-    <row r="23" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-    </row>
-    <row r="24" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:105" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>